--- a/NYP_OrnekKonuListesii.xlsx
+++ b/NYP_OrnekKonuListesii.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\root\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zeyne\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9429CE52-41FA-493A-81DB-3CF7180167C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="182">
   <si>
     <t>Sıra</t>
   </si>
@@ -571,7 +570,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="14">
     <font>
       <sz val="11"/>
@@ -1085,20 +1084,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I140"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.140625" customWidth="1"/>
-    <col min="2" max="2" width="51.5703125" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" customWidth="1"/>
-    <col min="4" max="4" width="29.7109375" customWidth="1"/>
-    <col min="5" max="5" width="33.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" customWidth="1"/>
+    <col min="2" max="2" width="51.5546875" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" customWidth="1"/>
+    <col min="4" max="4" width="29.6640625" customWidth="1"/>
+    <col min="5" max="5" width="33.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1533,7 +1532,9 @@
       <c r="D35" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="E35" s="15"/>
+      <c r="E35" s="15" t="s">
+        <v>180</v>
+      </c>
       <c r="F35" s="15"/>
       <c r="G35" s="15"/>
       <c r="H35" s="15"/>
@@ -2407,7 +2408,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="13.9" customHeight="1">
+    <row r="114" spans="1:4" ht="13.95" customHeight="1">
       <c r="A114" s="5"/>
       <c r="B114" s="6"/>
       <c r="C114" t="s">

--- a/NYP_OrnekKonuListesii.xlsx
+++ b/NYP_OrnekKonuListesii.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zeyne\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\root\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76AB731A-7B91-4F1E-B96C-513C262928B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="182">
   <si>
     <t>Sıra</t>
   </si>
@@ -570,7 +571,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="14">
     <font>
       <sz val="11"/>
@@ -1084,20 +1085,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.109375" customWidth="1"/>
-    <col min="2" max="2" width="51.5546875" customWidth="1"/>
-    <col min="3" max="3" width="24.6640625" customWidth="1"/>
-    <col min="4" max="4" width="29.6640625" customWidth="1"/>
-    <col min="5" max="5" width="33.6640625" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="51.5703125" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" customWidth="1"/>
+    <col min="4" max="4" width="29.7109375" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1281,6 +1282,9 @@
       <c r="D13" s="15" t="s">
         <v>115</v>
       </c>
+      <c r="E13" s="15" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="14" spans="1:5" s="15" customFormat="1">
       <c r="A14" s="11">
@@ -1613,6 +1617,9 @@
       <c r="D42" s="15" t="s">
         <v>115</v>
       </c>
+      <c r="E42" s="15" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="5">
@@ -1977,6 +1984,9 @@
       </c>
       <c r="D76" s="15" t="s">
         <v>115</v>
+      </c>
+      <c r="E76" s="15" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="77" spans="1:5" s="15" customFormat="1">
@@ -2408,7 +2418,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="13.95" customHeight="1">
+    <row r="114" spans="1:4" ht="13.9" customHeight="1">
       <c r="A114" s="5"/>
       <c r="B114" s="6"/>
       <c r="C114" t="s">

--- a/NYP_OrnekKonuListesii.xlsx
+++ b/NYP_OrnekKonuListesii.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\root\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\root\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76AB731A-7B91-4F1E-B96C-513C262928B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B95E9F3A-9542-44A2-B03A-F3AF5841C01E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="182">
   <si>
     <t>Sıra</t>
   </si>
@@ -1088,8 +1088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2343,6 +2343,9 @@
       <c r="D108" s="15" t="s">
         <v>115</v>
       </c>
+      <c r="E108" s="15" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="109" spans="1:9">
       <c r="A109" s="11">

--- a/NYP_OrnekKonuListesii.xlsx
+++ b/NYP_OrnekKonuListesii.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\root\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\root\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B95E9F3A-9542-44A2-B03A-F3AF5841C01E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{847359E9-D53A-47A2-A7DE-6537D6B393A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="182">
   <si>
     <t>Sıra</t>
   </si>
@@ -1088,8 +1088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I140"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1145,6 +1145,9 @@
       <c r="D3" s="15" t="s">
         <v>176</v>
       </c>
+      <c r="E3" s="15" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="4" spans="1:5" s="15" customFormat="1">
       <c r="A4" s="11">
@@ -1157,6 +1160,9 @@
         <v>181</v>
       </c>
       <c r="D4" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="E4" s="15" t="s">
         <v>176</v>
       </c>
     </row>
